--- a/Base de datos total IG.xlsx
+++ b/Base de datos total IG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FAMILIA\Desktop\Tesis\ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44822648-D495-4090-A77F-856D2E2F83D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0F0B9F-E075-4133-9140-C928B6DD02BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{6F774A2E-0CB2-4344-92E8-49FAD851198F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6F774A2E-0CB2-4344-92E8-49FAD851198F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,28 +38,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Estacion-Norm</t>
+    <t>Estacion</t>
   </si>
   <si>
-    <t>Prof-Norm</t>
+    <t>Prof</t>
   </si>
   <si>
-    <t>PesoEsp-Norm</t>
+    <t>PesoEsp</t>
   </si>
   <si>
-    <t>RCS-Norm</t>
+    <t>RCS</t>
   </si>
   <si>
-    <t>RQD-Norm</t>
+    <t>RQD</t>
   </si>
   <si>
-    <t>RMR-Norm</t>
+    <t>RMR</t>
   </si>
   <si>
-    <t>GSI-Norm</t>
+    <t>GSI</t>
   </si>
   <si>
-    <t>TipoFort-Norm</t>
+    <t>TipoFort</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
